--- a/modelo6 - copia/origen/ficheros/FICHA_RESUMEN_PLACO23 (Modelo6)_indicando campos.xlsx
+++ b/modelo6 - copia/origen/ficheros/FICHA_RESUMEN_PLACO23 (Modelo6)_indicando campos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\catastro\modelo6\origen\ficheros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\catastro\modelo6 - copia\origen\ficheros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8A04CB-9F9C-4621-9F10-214EF277CFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BD0FA4-2AB1-42C5-B973-A377AB566F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-990" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FICHA RESUMEN PLACO" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="98">
   <si>
     <t>LOCAL</t>
   </si>
@@ -538,39 +538,12 @@
     <t>cargo</t>
   </si>
   <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>PLA</t>
-  </si>
-  <si>
-    <t>PUE</t>
-  </si>
-  <si>
-    <t>CAT_PREDIO</t>
-  </si>
-  <si>
-    <t>TIPOL</t>
-  </si>
-  <si>
-    <t>U_CONS</t>
-  </si>
-  <si>
-    <t>ORD_CONS</t>
-  </si>
-  <si>
-    <t>SUP_LOCAL</t>
-  </si>
-  <si>
     <t>AP_CO_CO</t>
   </si>
   <si>
     <t>ANY_ANTIG</t>
   </si>
   <si>
-    <t>DEST</t>
-  </si>
-  <si>
     <t>local</t>
   </si>
   <si>
@@ -605,13 +578,97 @@
   </si>
   <si>
     <t>uso</t>
+  </si>
+  <si>
+    <t>ORDEN</t>
+  </si>
+  <si>
+    <t>ESCALERA</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>PLANTA</t>
+  </si>
+  <si>
+    <t>PUERTA</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>AAP</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>TIPOLOGIA</t>
+  </si>
+  <si>
+    <t>CATEG_PRED</t>
+  </si>
+  <si>
+    <t>01234</t>
+  </si>
+  <si>
+    <t>01214</t>
+  </si>
+  <si>
+    <t>01216</t>
+  </si>
+  <si>
+    <t>DESTINO</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>SUPERFICIE_TOTAL</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>UNIDAD_CONST</t>
+  </si>
+  <si>
+    <t>COEF_CONSERVACION</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AA_ANTIGUEDAD</t>
+  </si>
+  <si>
+    <t>AA_REFORMA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -834,6 +891,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1303,7 +1366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1443,236 +1506,35 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1711,6 +1573,228 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2120,26 +2204,45 @@
   </sheetPr>
   <dimension ref="A1:AN78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7:AA7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38:AA40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="13" width="5.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="5" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="5" customWidth="1"/>
+    <col min="12" max="13" width="5.7109375" style="5" customWidth="1"/>
     <col min="14" max="14" width="0.85546875" style="5" customWidth="1"/>
-    <col min="15" max="27" width="5.7109375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="5" customWidth="1"/>
+    <col min="17" max="19" width="5.7109375" style="5" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="18" style="5" customWidth="1"/>
+    <col min="22" max="22" width="15" style="5" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" style="5" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" style="5" customWidth="1"/>
+    <col min="25" max="25" width="18.85546875" style="5" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" style="5" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" style="5" customWidth="1"/>
     <col min="28" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
@@ -2151,24 +2254,24 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="123" t="s">
+      <c r="R2" s="47"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
@@ -2180,22 +2283,22 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
@@ -2207,115 +2310,115 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
     </row>
     <row r="5" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:27" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125"/>
-      <c r="AA6" s="125"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
     </row>
     <row r="7" spans="1:27" s="34" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="126" t="s">
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
-      <c r="S7" s="127"/>
-      <c r="T7" s="127"/>
-      <c r="U7" s="127"/>
-      <c r="V7" s="127"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="127"/>
-      <c r="Y7" s="127"/>
-      <c r="Z7" s="127"/>
-      <c r="AA7" s="128"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="61"/>
     </row>
     <row r="8" spans="1:27" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:27" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="136"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="131" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="132"/>
-      <c r="N9" s="132"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="132"/>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="132"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="133"/>
-      <c r="U9" s="133"/>
-      <c r="V9" s="133"/>
-      <c r="W9" s="133"/>
-      <c r="X9" s="133"/>
-      <c r="Y9" s="133"/>
-      <c r="Z9" s="133"/>
-      <c r="AA9" s="134"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="67"/>
     </row>
     <row r="10" spans="1:27" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
@@ -2332,252 +2435,252 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="120" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="121"/>
-      <c r="R11" s="121"/>
-      <c r="S11" s="121"/>
-      <c r="T11" s="121"/>
-      <c r="U11" s="121"/>
-      <c r="V11" s="121"/>
-      <c r="W11" s="121"/>
-      <c r="X11" s="121"/>
-      <c r="Y11" s="121"/>
-      <c r="Z11" s="121"/>
-      <c r="AA11" s="122"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="54"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="49"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="91"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="91"/>
+      <c r="Z12" s="91"/>
+      <c r="AA12" s="92"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="68" t="s">
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="74" t="s">
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="75"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="75"/>
-      <c r="W13" s="75"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="75"/>
-      <c r="Z13" s="75"/>
-      <c r="AA13" s="75"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="115"/>
+      <c r="S13" s="115"/>
+      <c r="T13" s="115"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="115"/>
+      <c r="W13" s="115"/>
+      <c r="X13" s="115"/>
+      <c r="Y13" s="115"/>
+      <c r="Z13" s="115"/>
+      <c r="AA13" s="115"/>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="75"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="75"/>
+      <c r="A14" s="102"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="115"/>
+      <c r="T14" s="115"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="115"/>
+      <c r="W14" s="115"/>
+      <c r="X14" s="115"/>
+      <c r="Y14" s="115"/>
+      <c r="Z14" s="115"/>
+      <c r="AA14" s="115"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="75"/>
-      <c r="T15" s="75"/>
-      <c r="U15" s="75"/>
-      <c r="V15" s="75"/>
-      <c r="W15" s="75"/>
-      <c r="X15" s="75"/>
-      <c r="Y15" s="75"/>
-      <c r="Z15" s="75"/>
-      <c r="AA15" s="75"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="115"/>
+      <c r="T15" s="115"/>
+      <c r="U15" s="115"/>
+      <c r="V15" s="115"/>
+      <c r="W15" s="115"/>
+      <c r="X15" s="115"/>
+      <c r="Y15" s="115"/>
+      <c r="Z15" s="115"/>
+      <c r="AA15" s="115"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="68" t="s">
+      <c r="A16" s="102"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="70" t="s">
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="52"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="95"/>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="72"/>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="73"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="112"/>
+      <c r="S17" s="112"/>
+      <c r="T17" s="112"/>
+      <c r="U17" s="112"/>
+      <c r="V17" s="112"/>
+      <c r="W17" s="112"/>
+      <c r="X17" s="112"/>
+      <c r="Y17" s="112"/>
+      <c r="Z17" s="112"/>
+      <c r="AA17" s="113"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="55"/>
+      <c r="A18" s="105"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="97"/>
+      <c r="S18" s="97"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="97"/>
+      <c r="V18" s="97"/>
+      <c r="W18" s="97"/>
+      <c r="X18" s="97"/>
+      <c r="Y18" s="97"/>
+      <c r="Z18" s="97"/>
+      <c r="AA18" s="98"/>
     </row>
     <row r="19" spans="1:27" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
@@ -2594,14 +2697,14 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="83"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="121"/>
       <c r="G20" s="37" t="s">
         <v>12</v>
       </c>
@@ -2628,21 +2731,21 @@
       <c r="V20" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="W20" s="89" t="s">
+      <c r="W20" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="90"/>
+      <c r="X20" s="127"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="127"/>
+      <c r="AA20" s="128"/>
     </row>
     <row r="21" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="62"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="85"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="123"/>
       <c r="G21" s="38"/>
       <c r="H21" s="36" t="s">
         <v>19</v>
@@ -2678,12 +2781,12 @@
       <c r="AA21" s="33"/>
     </row>
     <row r="22" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="62"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="85"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="123"/>
       <c r="G22" s="37" t="s">
         <v>12</v>
       </c>
@@ -2719,12 +2822,12 @@
       <c r="AA22" s="30"/>
     </row>
     <row r="23" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="86"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="88"/>
+      <c r="A23" s="124"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="126"/>
       <c r="G23" s="38"/>
       <c r="H23" s="36" t="s">
         <v>19</v>
@@ -2774,97 +2877,97 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="91" t="s">
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="92"/>
-      <c r="S25" s="92"/>
-      <c r="T25" s="92"/>
-      <c r="U25" s="92"/>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="92"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="92"/>
-      <c r="AA25" s="93"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="130"/>
+      <c r="L25" s="130"/>
+      <c r="M25" s="130"/>
+      <c r="N25" s="130"/>
+      <c r="O25" s="130"/>
+      <c r="P25" s="130"/>
+      <c r="Q25" s="130"/>
+      <c r="R25" s="130"/>
+      <c r="S25" s="130"/>
+      <c r="T25" s="130"/>
+      <c r="U25" s="130"/>
+      <c r="V25" s="130"/>
+      <c r="W25" s="130"/>
+      <c r="X25" s="130"/>
+      <c r="Y25" s="130"/>
+      <c r="Z25" s="130"/>
+      <c r="AA25" s="131"/>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="94" t="s">
+      <c r="A26" s="111"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="95"/>
-      <c r="U26" s="95"/>
-      <c r="V26" s="95"/>
-      <c r="W26" s="95"/>
-      <c r="X26" s="95"/>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="95"/>
-      <c r="AA26" s="96"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="133"/>
+      <c r="N26" s="133"/>
+      <c r="O26" s="133"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="133"/>
+      <c r="R26" s="133"/>
+      <c r="S26" s="133"/>
+      <c r="T26" s="133"/>
+      <c r="U26" s="133"/>
+      <c r="V26" s="133"/>
+      <c r="W26" s="133"/>
+      <c r="X26" s="133"/>
+      <c r="Y26" s="133"/>
+      <c r="Z26" s="133"/>
+      <c r="AA26" s="134"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="98"/>
-      <c r="Q27" s="98"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
-      <c r="U27" s="98"/>
-      <c r="V27" s="98"/>
-      <c r="W27" s="98"/>
-      <c r="X27" s="98"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="99"/>
+      <c r="A27" s="96"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="136"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="136"/>
+      <c r="Q27" s="136"/>
+      <c r="R27" s="136"/>
+      <c r="S27" s="136"/>
+      <c r="T27" s="136"/>
+      <c r="U27" s="136"/>
+      <c r="V27" s="136"/>
+      <c r="W27" s="136"/>
+      <c r="X27" s="136"/>
+      <c r="Y27" s="136"/>
+      <c r="Z27" s="136"/>
+      <c r="AA27" s="137"/>
     </row>
     <row r="28" spans="1:27" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
@@ -2881,15 +2984,15 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="76" t="s">
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="116" t="s">
         <v>50</v>
       </c>
       <c r="H29" s="77"/>
@@ -2914,65 +3017,65 @@
       <c r="AA29" s="78"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="80"/>
-      <c r="R30" s="80"/>
-      <c r="S30" s="80"/>
-      <c r="T30" s="80"/>
-      <c r="U30" s="80"/>
-      <c r="V30" s="80"/>
-      <c r="W30" s="80"/>
-      <c r="X30" s="80"/>
-      <c r="Y30" s="80"/>
-      <c r="Z30" s="80"/>
-      <c r="AA30" s="81"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="118"/>
+      <c r="M30" s="118"/>
+      <c r="N30" s="118"/>
+      <c r="O30" s="118"/>
+      <c r="P30" s="118"/>
+      <c r="Q30" s="118"/>
+      <c r="R30" s="118"/>
+      <c r="S30" s="118"/>
+      <c r="T30" s="118"/>
+      <c r="U30" s="118"/>
+      <c r="V30" s="118"/>
+      <c r="W30" s="118"/>
+      <c r="X30" s="118"/>
+      <c r="Y30" s="118"/>
+      <c r="Z30" s="118"/>
+      <c r="AA30" s="119"/>
     </row>
     <row r="31" spans="1:27" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="57"/>
-      <c r="T32" s="57"/>
-      <c r="U32" s="57"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="57"/>
-      <c r="X32" s="57"/>
-      <c r="Y32" s="57"/>
-      <c r="Z32" s="57"/>
-      <c r="AA32" s="58"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="88"/>
+      <c r="Y32" s="88"/>
+      <c r="Z32" s="88"/>
+      <c r="AA32" s="89"/>
     </row>
     <row r="33" spans="1:40" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -2989,68 +3092,68 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="110" t="s">
+      <c r="A34" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="112"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="84"/>
       <c r="N34" s="4"/>
-      <c r="O34" s="110" t="s">
+      <c r="O34" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="P34" s="113"/>
-      <c r="Q34" s="113"/>
-      <c r="R34" s="113"/>
-      <c r="S34" s="113"/>
-      <c r="T34" s="113"/>
-      <c r="U34" s="113"/>
-      <c r="V34" s="113"/>
-      <c r="W34" s="113"/>
-      <c r="X34" s="113"/>
-      <c r="Y34" s="113"/>
-      <c r="Z34" s="113"/>
-      <c r="AA34" s="114"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="85"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="85"/>
+      <c r="U34" s="85"/>
+      <c r="V34" s="85"/>
+      <c r="W34" s="85"/>
+      <c r="X34" s="85"/>
+      <c r="Y34" s="85"/>
+      <c r="Z34" s="85"/>
+      <c r="AA34" s="86"/>
     </row>
     <row r="35" spans="1:40" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" s="26" t="s">
-        <v>4</v>
+      <c r="B35" s="138" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="138" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="138" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="138" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="138" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35" s="138" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" s="138" t="s">
+        <v>91</v>
       </c>
       <c r="K35" s="26" t="s">
         <v>17</v>
@@ -3102,144 +3205,230 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:40" s="46" customFormat="1" ht="8.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="42" t="s">
+    <row r="36" spans="1:40" s="46" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="41">
+        <v>1</v>
+      </c>
+      <c r="B36" s="43">
+        <v>1</v>
+      </c>
+      <c r="C36" s="139"/>
+      <c r="D36" s="139" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="140" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="138" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="140" t="s">
+        <v>87</v>
+      </c>
+      <c r="I36" s="138">
+        <v>47</v>
+      </c>
+      <c r="J36" s="139" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="L36" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="G36" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="H36" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="I36" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="J36" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="K36" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="L36" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="M36" s="44"/>
+      <c r="M36" s="141"/>
       <c r="N36" s="45"/>
       <c r="O36" s="41" t="s">
         <v>55</v>
       </c>
       <c r="P36" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q36" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="R36" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="S36" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="T36" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="U36" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="V36" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="W36" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="X36" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y36" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z36" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="Q36" s="42" t="s">
+      <c r="AA36" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="R36" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="S36" s="42" t="s">
+    </row>
+    <row r="37" spans="1:40" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="17">
+        <v>1</v>
+      </c>
+      <c r="B37" s="18">
+        <v>2</v>
+      </c>
+      <c r="C37" s="139"/>
+      <c r="D37" s="139" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="144" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="138" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="139" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="144" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" s="144" t="s">
+        <v>90</v>
+      </c>
+      <c r="J37" s="139" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37" s="142"/>
+      <c r="L37" s="142"/>
+      <c r="M37" s="143"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="P37" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="T36" s="42" t="s">
+      <c r="Q37" s="138" t="s">
+        <v>71</v>
+      </c>
+      <c r="R37" s="138" t="s">
+        <v>75</v>
+      </c>
+      <c r="S37" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="T37" s="138" t="s">
+        <v>81</v>
+      </c>
+      <c r="U37" s="138" t="s">
+        <v>82</v>
+      </c>
+      <c r="V37" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="W37" s="138" t="s">
+        <v>89</v>
+      </c>
+      <c r="X37" s="138" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y37" s="138" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z37" s="138" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA37" s="138" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="17">
+        <v>1</v>
+      </c>
+      <c r="B38" s="18">
+        <v>3</v>
+      </c>
+      <c r="C38" s="144" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="144" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="138" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="139" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="144" t="s">
+        <v>88</v>
+      </c>
+      <c r="I38" s="144" t="s">
+        <v>90</v>
+      </c>
+      <c r="J38" s="139" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38" s="142"/>
+      <c r="L38" s="142"/>
+      <c r="M38" s="143"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="41">
+        <v>1</v>
+      </c>
+      <c r="P38" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="139"/>
+      <c r="R38" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="U36" s="42" t="s">
+      <c r="S38" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="V36" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="W36" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="X36" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y36" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z36" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA36" s="44" t="s">
+      <c r="T38" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="U38" s="139" t="s">
+        <v>87</v>
+      </c>
+      <c r="V38" s="138" t="s">
+        <v>79</v>
+      </c>
+      <c r="W38" s="138">
+        <v>47</v>
+      </c>
+      <c r="X38" s="139" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="20"/>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="20"/>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="Y38" s="140" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z38" s="138">
+        <v>2023</v>
+      </c>
+      <c r="AA38" s="138">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
@@ -3254,21 +3443,45 @@
       <c r="L39" s="19"/>
       <c r="M39" s="20"/>
       <c r="N39" s="3"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="20"/>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="O39" s="17">
+        <v>1</v>
+      </c>
+      <c r="P39" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="139"/>
+      <c r="R39" s="139" t="s">
+        <v>73</v>
+      </c>
+      <c r="S39" s="144" t="s">
+        <v>73</v>
+      </c>
+      <c r="T39" s="139" t="s">
+        <v>84</v>
+      </c>
+      <c r="U39" s="139" t="s">
+        <v>87</v>
+      </c>
+      <c r="V39" s="138" t="s">
+        <v>80</v>
+      </c>
+      <c r="W39" s="144" t="s">
+        <v>90</v>
+      </c>
+      <c r="X39" s="139" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y39" s="144" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z39" s="138">
+        <v>2023</v>
+      </c>
+      <c r="AA39" s="138">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
@@ -3283,19 +3496,45 @@
       <c r="L40" s="19"/>
       <c r="M40" s="20"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="19"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="19"/>
-      <c r="AA40" s="20"/>
+      <c r="O40" s="17">
+        <v>1</v>
+      </c>
+      <c r="P40" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q40" s="144" t="s">
+        <v>78</v>
+      </c>
+      <c r="R40" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="S40" s="144" t="s">
+        <v>73</v>
+      </c>
+      <c r="T40" s="139" t="s">
+        <v>85</v>
+      </c>
+      <c r="U40" s="139" t="s">
+        <v>88</v>
+      </c>
+      <c r="V40" s="138" t="s">
+        <v>80</v>
+      </c>
+      <c r="W40" s="144" t="s">
+        <v>90</v>
+      </c>
+      <c r="X40" s="139" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y40" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z40" s="138">
+        <v>1956</v>
+      </c>
+      <c r="AA40" s="138">
+        <v>2013</v>
+      </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
@@ -3474,53 +3713,53 @@
     <row r="47" spans="1:40" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="1:40" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
-      <c r="AB48" s="109"/>
-      <c r="AC48" s="109"/>
-      <c r="AD48" s="109"/>
-      <c r="AE48" s="109"/>
-      <c r="AF48" s="109"/>
-      <c r="AG48" s="109"/>
-      <c r="AH48" s="109"/>
-      <c r="AI48" s="109"/>
-      <c r="AJ48" s="109"/>
-      <c r="AK48" s="109"/>
-      <c r="AL48" s="109"/>
-      <c r="AM48" s="109"/>
-      <c r="AN48" s="109"/>
+      <c r="AB48" s="81"/>
+      <c r="AC48" s="81"/>
+      <c r="AD48" s="81"/>
+      <c r="AE48" s="81"/>
+      <c r="AF48" s="81"/>
+      <c r="AG48" s="81"/>
+      <c r="AH48" s="81"/>
+      <c r="AI48" s="81"/>
+      <c r="AJ48" s="81"/>
+      <c r="AK48" s="81"/>
+      <c r="AL48" s="81"/>
+      <c r="AM48" s="81"/>
+      <c r="AN48" s="81"/>
     </row>
     <row r="49" spans="1:27" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
     </row>
     <row r="50" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="57"/>
-      <c r="S50" s="57"/>
-      <c r="T50" s="57"/>
-      <c r="U50" s="57"/>
-      <c r="V50" s="57"/>
-      <c r="W50" s="57"/>
-      <c r="X50" s="57"/>
-      <c r="Y50" s="57"/>
-      <c r="Z50" s="57"/>
-      <c r="AA50" s="58"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="88"/>
+      <c r="M50" s="88"/>
+      <c r="N50" s="88"/>
+      <c r="O50" s="88"/>
+      <c r="P50" s="88"/>
+      <c r="Q50" s="88"/>
+      <c r="R50" s="88"/>
+      <c r="S50" s="88"/>
+      <c r="T50" s="88"/>
+      <c r="U50" s="88"/>
+      <c r="V50" s="88"/>
+      <c r="W50" s="88"/>
+      <c r="X50" s="88"/>
+      <c r="Y50" s="88"/>
+      <c r="Z50" s="88"/>
+      <c r="AA50" s="89"/>
     </row>
     <row r="51" spans="1:27" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
@@ -3537,23 +3776,23 @@
       <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="100" t="s">
+      <c r="A52" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="101"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="101"/>
-      <c r="F52" s="101"/>
-      <c r="G52" s="101"/>
-      <c r="H52" s="101"/>
-      <c r="I52" s="101"/>
-      <c r="J52" s="101"/>
-      <c r="K52" s="101"/>
-      <c r="L52" s="101"/>
-      <c r="M52" s="102"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="73"/>
       <c r="N52" s="11"/>
-      <c r="O52" s="100" t="s">
+      <c r="O52" s="71" t="s">
         <v>52</v>
       </c>
       <c r="P52" s="77"/>
@@ -3570,729 +3809,729 @@
       <c r="AA52" s="78"/>
     </row>
     <row r="53" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="103"/>
-      <c r="B53" s="104"/>
-      <c r="C53" s="104"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="104"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="104"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="104"/>
-      <c r="K53" s="104"/>
-      <c r="L53" s="104"/>
-      <c r="M53" s="105"/>
+      <c r="A53" s="74"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="75"/>
+      <c r="M53" s="76"/>
       <c r="N53" s="11"/>
-      <c r="O53" s="106"/>
-      <c r="P53" s="107"/>
-      <c r="Q53" s="107"/>
-      <c r="R53" s="107"/>
-      <c r="S53" s="107"/>
-      <c r="T53" s="107"/>
-      <c r="U53" s="107"/>
-      <c r="V53" s="107"/>
-      <c r="W53" s="107"/>
-      <c r="X53" s="107"/>
-      <c r="Y53" s="107"/>
-      <c r="Z53" s="107"/>
-      <c r="AA53" s="108"/>
+      <c r="O53" s="79"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="56"/>
+      <c r="X53" s="56"/>
+      <c r="Y53" s="56"/>
+      <c r="Z53" s="56"/>
+      <c r="AA53" s="80"/>
     </row>
     <row r="54" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="103"/>
-      <c r="B54" s="104"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="104"/>
-      <c r="H54" s="104"/>
-      <c r="I54" s="104"/>
-      <c r="J54" s="104"/>
-      <c r="K54" s="104"/>
-      <c r="L54" s="104"/>
-      <c r="M54" s="105"/>
+      <c r="A54" s="74"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="76"/>
       <c r="N54" s="11"/>
-      <c r="O54" s="106"/>
-      <c r="P54" s="107"/>
-      <c r="Q54" s="107"/>
-      <c r="R54" s="107"/>
-      <c r="S54" s="107"/>
-      <c r="T54" s="107"/>
-      <c r="U54" s="107"/>
-      <c r="V54" s="107"/>
-      <c r="W54" s="107"/>
-      <c r="X54" s="107"/>
-      <c r="Y54" s="107"/>
-      <c r="Z54" s="107"/>
-      <c r="AA54" s="108"/>
+      <c r="O54" s="79"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="56"/>
+      <c r="T54" s="56"/>
+      <c r="U54" s="56"/>
+      <c r="V54" s="56"/>
+      <c r="W54" s="56"/>
+      <c r="X54" s="56"/>
+      <c r="Y54" s="56"/>
+      <c r="Z54" s="56"/>
+      <c r="AA54" s="80"/>
     </row>
     <row r="55" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="103"/>
-      <c r="B55" s="104"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="104"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="104"/>
-      <c r="J55" s="104"/>
-      <c r="K55" s="104"/>
-      <c r="L55" s="104"/>
-      <c r="M55" s="105"/>
+      <c r="A55" s="74"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="75"/>
+      <c r="L55" s="75"/>
+      <c r="M55" s="76"/>
       <c r="N55" s="11"/>
-      <c r="O55" s="106"/>
-      <c r="P55" s="107"/>
-      <c r="Q55" s="107"/>
-      <c r="R55" s="107"/>
-      <c r="S55" s="107"/>
-      <c r="T55" s="107"/>
-      <c r="U55" s="107"/>
-      <c r="V55" s="107"/>
-      <c r="W55" s="107"/>
-      <c r="X55" s="107"/>
-      <c r="Y55" s="107"/>
-      <c r="Z55" s="107"/>
-      <c r="AA55" s="108"/>
+      <c r="O55" s="79"/>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="56"/>
+      <c r="T55" s="56"/>
+      <c r="U55" s="56"/>
+      <c r="V55" s="56"/>
+      <c r="W55" s="56"/>
+      <c r="X55" s="56"/>
+      <c r="Y55" s="56"/>
+      <c r="Z55" s="56"/>
+      <c r="AA55" s="80"/>
     </row>
     <row r="56" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="103"/>
-      <c r="B56" s="104"/>
-      <c r="C56" s="104"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="104"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="104"/>
-      <c r="J56" s="104"/>
-      <c r="K56" s="104"/>
-      <c r="L56" s="104"/>
-      <c r="M56" s="105"/>
+      <c r="A56" s="74"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="75"/>
+      <c r="L56" s="75"/>
+      <c r="M56" s="76"/>
       <c r="N56" s="11"/>
-      <c r="O56" s="106"/>
-      <c r="P56" s="107"/>
-      <c r="Q56" s="107"/>
-      <c r="R56" s="107"/>
-      <c r="S56" s="107"/>
-      <c r="T56" s="107"/>
-      <c r="U56" s="107"/>
-      <c r="V56" s="107"/>
-      <c r="W56" s="107"/>
-      <c r="X56" s="107"/>
-      <c r="Y56" s="107"/>
-      <c r="Z56" s="107"/>
-      <c r="AA56" s="108"/>
+      <c r="O56" s="79"/>
+      <c r="P56" s="56"/>
+      <c r="Q56" s="56"/>
+      <c r="R56" s="56"/>
+      <c r="S56" s="56"/>
+      <c r="T56" s="56"/>
+      <c r="U56" s="56"/>
+      <c r="V56" s="56"/>
+      <c r="W56" s="56"/>
+      <c r="X56" s="56"/>
+      <c r="Y56" s="56"/>
+      <c r="Z56" s="56"/>
+      <c r="AA56" s="80"/>
     </row>
     <row r="57" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="103"/>
-      <c r="B57" s="104"/>
-      <c r="C57" s="104"/>
-      <c r="D57" s="104"/>
-      <c r="E57" s="104"/>
-      <c r="F57" s="104"/>
-      <c r="G57" s="104"/>
-      <c r="H57" s="104"/>
-      <c r="I57" s="104"/>
-      <c r="J57" s="104"/>
-      <c r="K57" s="104"/>
-      <c r="L57" s="104"/>
-      <c r="M57" s="105"/>
+      <c r="A57" s="74"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="75"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="76"/>
       <c r="N57" s="11"/>
-      <c r="O57" s="106"/>
-      <c r="P57" s="107"/>
-      <c r="Q57" s="107"/>
-      <c r="R57" s="107"/>
-      <c r="S57" s="107"/>
-      <c r="T57" s="107"/>
-      <c r="U57" s="107"/>
-      <c r="V57" s="107"/>
-      <c r="W57" s="107"/>
-      <c r="X57" s="107"/>
-      <c r="Y57" s="107"/>
-      <c r="Z57" s="107"/>
-      <c r="AA57" s="108"/>
+      <c r="O57" s="79"/>
+      <c r="P57" s="56"/>
+      <c r="Q57" s="56"/>
+      <c r="R57" s="56"/>
+      <c r="S57" s="56"/>
+      <c r="T57" s="56"/>
+      <c r="U57" s="56"/>
+      <c r="V57" s="56"/>
+      <c r="W57" s="56"/>
+      <c r="X57" s="56"/>
+      <c r="Y57" s="56"/>
+      <c r="Z57" s="56"/>
+      <c r="AA57" s="80"/>
     </row>
     <row r="58" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="103"/>
-      <c r="B58" s="104"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="104"/>
-      <c r="E58" s="104"/>
-      <c r="F58" s="104"/>
-      <c r="G58" s="104"/>
-      <c r="H58" s="104"/>
-      <c r="I58" s="104"/>
-      <c r="J58" s="104"/>
-      <c r="K58" s="104"/>
-      <c r="L58" s="104"/>
-      <c r="M58" s="105"/>
+      <c r="A58" s="74"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="75"/>
+      <c r="K58" s="75"/>
+      <c r="L58" s="75"/>
+      <c r="M58" s="76"/>
       <c r="N58" s="11"/>
-      <c r="O58" s="106"/>
-      <c r="P58" s="107"/>
-      <c r="Q58" s="107"/>
-      <c r="R58" s="107"/>
-      <c r="S58" s="107"/>
-      <c r="T58" s="107"/>
-      <c r="U58" s="107"/>
-      <c r="V58" s="107"/>
-      <c r="W58" s="107"/>
-      <c r="X58" s="107"/>
-      <c r="Y58" s="107"/>
-      <c r="Z58" s="107"/>
-      <c r="AA58" s="108"/>
+      <c r="O58" s="79"/>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="56"/>
+      <c r="R58" s="56"/>
+      <c r="S58" s="56"/>
+      <c r="T58" s="56"/>
+      <c r="U58" s="56"/>
+      <c r="V58" s="56"/>
+      <c r="W58" s="56"/>
+      <c r="X58" s="56"/>
+      <c r="Y58" s="56"/>
+      <c r="Z58" s="56"/>
+      <c r="AA58" s="80"/>
     </row>
     <row r="59" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="103"/>
-      <c r="B59" s="104"/>
-      <c r="C59" s="104"/>
-      <c r="D59" s="104"/>
-      <c r="E59" s="104"/>
-      <c r="F59" s="104"/>
-      <c r="G59" s="104"/>
-      <c r="H59" s="104"/>
-      <c r="I59" s="104"/>
-      <c r="J59" s="104"/>
-      <c r="K59" s="104"/>
-      <c r="L59" s="104"/>
-      <c r="M59" s="105"/>
+      <c r="A59" s="74"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="75"/>
+      <c r="K59" s="75"/>
+      <c r="L59" s="75"/>
+      <c r="M59" s="76"/>
       <c r="N59" s="11"/>
-      <c r="O59" s="106"/>
-      <c r="P59" s="107"/>
-      <c r="Q59" s="107"/>
-      <c r="R59" s="107"/>
-      <c r="S59" s="107"/>
-      <c r="T59" s="107"/>
-      <c r="U59" s="107"/>
-      <c r="V59" s="107"/>
-      <c r="W59" s="107"/>
-      <c r="X59" s="107"/>
-      <c r="Y59" s="107"/>
-      <c r="Z59" s="107"/>
-      <c r="AA59" s="108"/>
+      <c r="O59" s="79"/>
+      <c r="P59" s="56"/>
+      <c r="Q59" s="56"/>
+      <c r="R59" s="56"/>
+      <c r="S59" s="56"/>
+      <c r="T59" s="56"/>
+      <c r="U59" s="56"/>
+      <c r="V59" s="56"/>
+      <c r="W59" s="56"/>
+      <c r="X59" s="56"/>
+      <c r="Y59" s="56"/>
+      <c r="Z59" s="56"/>
+      <c r="AA59" s="80"/>
     </row>
     <row r="60" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="103"/>
-      <c r="B60" s="104"/>
-      <c r="C60" s="104"/>
-      <c r="D60" s="104"/>
-      <c r="E60" s="104"/>
-      <c r="F60" s="104"/>
-      <c r="G60" s="104"/>
-      <c r="H60" s="104"/>
-      <c r="I60" s="104"/>
-      <c r="J60" s="104"/>
-      <c r="K60" s="104"/>
-      <c r="L60" s="104"/>
-      <c r="M60" s="105"/>
+      <c r="A60" s="74"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="75"/>
+      <c r="K60" s="75"/>
+      <c r="L60" s="75"/>
+      <c r="M60" s="76"/>
       <c r="N60" s="11"/>
-      <c r="O60" s="106"/>
-      <c r="P60" s="107"/>
-      <c r="Q60" s="107"/>
-      <c r="R60" s="107"/>
-      <c r="S60" s="107"/>
-      <c r="T60" s="107"/>
-      <c r="U60" s="107"/>
-      <c r="V60" s="107"/>
-      <c r="W60" s="107"/>
-      <c r="X60" s="107"/>
-      <c r="Y60" s="107"/>
-      <c r="Z60" s="107"/>
-      <c r="AA60" s="108"/>
+      <c r="O60" s="79"/>
+      <c r="P60" s="56"/>
+      <c r="Q60" s="56"/>
+      <c r="R60" s="56"/>
+      <c r="S60" s="56"/>
+      <c r="T60" s="56"/>
+      <c r="U60" s="56"/>
+      <c r="V60" s="56"/>
+      <c r="W60" s="56"/>
+      <c r="X60" s="56"/>
+      <c r="Y60" s="56"/>
+      <c r="Z60" s="56"/>
+      <c r="AA60" s="80"/>
     </row>
     <row r="61" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="103"/>
-      <c r="B61" s="104"/>
-      <c r="C61" s="104"/>
-      <c r="D61" s="104"/>
-      <c r="E61" s="104"/>
-      <c r="F61" s="104"/>
-      <c r="G61" s="104"/>
-      <c r="H61" s="104"/>
-      <c r="I61" s="104"/>
-      <c r="J61" s="104"/>
-      <c r="K61" s="104"/>
-      <c r="L61" s="104"/>
-      <c r="M61" s="105"/>
+      <c r="A61" s="74"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="75"/>
+      <c r="J61" s="75"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="75"/>
+      <c r="M61" s="76"/>
       <c r="N61" s="11"/>
-      <c r="O61" s="106"/>
-      <c r="P61" s="107"/>
-      <c r="Q61" s="107"/>
-      <c r="R61" s="107"/>
-      <c r="S61" s="107"/>
-      <c r="T61" s="107"/>
-      <c r="U61" s="107"/>
-      <c r="V61" s="107"/>
-      <c r="W61" s="107"/>
-      <c r="X61" s="107"/>
-      <c r="Y61" s="107"/>
-      <c r="Z61" s="107"/>
-      <c r="AA61" s="108"/>
+      <c r="O61" s="79"/>
+      <c r="P61" s="56"/>
+      <c r="Q61" s="56"/>
+      <c r="R61" s="56"/>
+      <c r="S61" s="56"/>
+      <c r="T61" s="56"/>
+      <c r="U61" s="56"/>
+      <c r="V61" s="56"/>
+      <c r="W61" s="56"/>
+      <c r="X61" s="56"/>
+      <c r="Y61" s="56"/>
+      <c r="Z61" s="56"/>
+      <c r="AA61" s="80"/>
     </row>
     <row r="62" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="103"/>
-      <c r="B62" s="104"/>
-      <c r="C62" s="104"/>
-      <c r="D62" s="104"/>
-      <c r="E62" s="104"/>
-      <c r="F62" s="104"/>
-      <c r="G62" s="104"/>
-      <c r="H62" s="104"/>
-      <c r="I62" s="104"/>
-      <c r="J62" s="104"/>
-      <c r="K62" s="104"/>
-      <c r="L62" s="104"/>
-      <c r="M62" s="105"/>
+      <c r="A62" s="74"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="75"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="75"/>
+      <c r="K62" s="75"/>
+      <c r="L62" s="75"/>
+      <c r="M62" s="76"/>
       <c r="N62" s="11"/>
-      <c r="O62" s="106"/>
-      <c r="P62" s="107"/>
-      <c r="Q62" s="107"/>
-      <c r="R62" s="107"/>
-      <c r="S62" s="107"/>
-      <c r="T62" s="107"/>
-      <c r="U62" s="107"/>
-      <c r="V62" s="107"/>
-      <c r="W62" s="107"/>
-      <c r="X62" s="107"/>
-      <c r="Y62" s="107"/>
-      <c r="Z62" s="107"/>
-      <c r="AA62" s="108"/>
+      <c r="O62" s="79"/>
+      <c r="P62" s="56"/>
+      <c r="Q62" s="56"/>
+      <c r="R62" s="56"/>
+      <c r="S62" s="56"/>
+      <c r="T62" s="56"/>
+      <c r="U62" s="56"/>
+      <c r="V62" s="56"/>
+      <c r="W62" s="56"/>
+      <c r="X62" s="56"/>
+      <c r="Y62" s="56"/>
+      <c r="Z62" s="56"/>
+      <c r="AA62" s="80"/>
     </row>
     <row r="63" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="103"/>
-      <c r="B63" s="104"/>
-      <c r="C63" s="104"/>
-      <c r="D63" s="104"/>
-      <c r="E63" s="104"/>
-      <c r="F63" s="104"/>
-      <c r="G63" s="104"/>
-      <c r="H63" s="104"/>
-      <c r="I63" s="104"/>
-      <c r="J63" s="104"/>
-      <c r="K63" s="104"/>
-      <c r="L63" s="104"/>
-      <c r="M63" s="105"/>
+      <c r="A63" s="74"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="75"/>
+      <c r="K63" s="75"/>
+      <c r="L63" s="75"/>
+      <c r="M63" s="76"/>
       <c r="N63" s="11"/>
-      <c r="O63" s="106"/>
-      <c r="P63" s="107"/>
-      <c r="Q63" s="107"/>
-      <c r="R63" s="107"/>
-      <c r="S63" s="107"/>
-      <c r="T63" s="107"/>
-      <c r="U63" s="107"/>
-      <c r="V63" s="107"/>
-      <c r="W63" s="107"/>
-      <c r="X63" s="107"/>
-      <c r="Y63" s="107"/>
-      <c r="Z63" s="107"/>
-      <c r="AA63" s="108"/>
+      <c r="O63" s="79"/>
+      <c r="P63" s="56"/>
+      <c r="Q63" s="56"/>
+      <c r="R63" s="56"/>
+      <c r="S63" s="56"/>
+      <c r="T63" s="56"/>
+      <c r="U63" s="56"/>
+      <c r="V63" s="56"/>
+      <c r="W63" s="56"/>
+      <c r="X63" s="56"/>
+      <c r="Y63" s="56"/>
+      <c r="Z63" s="56"/>
+      <c r="AA63" s="80"/>
     </row>
     <row r="64" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="103"/>
-      <c r="B64" s="104"/>
-      <c r="C64" s="104"/>
-      <c r="D64" s="104"/>
-      <c r="E64" s="104"/>
-      <c r="F64" s="104"/>
-      <c r="G64" s="104"/>
-      <c r="H64" s="104"/>
-      <c r="I64" s="104"/>
-      <c r="J64" s="104"/>
-      <c r="K64" s="104"/>
-      <c r="L64" s="104"/>
-      <c r="M64" s="105"/>
+      <c r="A64" s="74"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="75"/>
+      <c r="K64" s="75"/>
+      <c r="L64" s="75"/>
+      <c r="M64" s="76"/>
       <c r="N64" s="11"/>
-      <c r="O64" s="106"/>
-      <c r="P64" s="107"/>
-      <c r="Q64" s="107"/>
-      <c r="R64" s="107"/>
-      <c r="S64" s="107"/>
-      <c r="T64" s="107"/>
-      <c r="U64" s="107"/>
-      <c r="V64" s="107"/>
-      <c r="W64" s="107"/>
-      <c r="X64" s="107"/>
-      <c r="Y64" s="107"/>
-      <c r="Z64" s="107"/>
-      <c r="AA64" s="108"/>
+      <c r="O64" s="79"/>
+      <c r="P64" s="56"/>
+      <c r="Q64" s="56"/>
+      <c r="R64" s="56"/>
+      <c r="S64" s="56"/>
+      <c r="T64" s="56"/>
+      <c r="U64" s="56"/>
+      <c r="V64" s="56"/>
+      <c r="W64" s="56"/>
+      <c r="X64" s="56"/>
+      <c r="Y64" s="56"/>
+      <c r="Z64" s="56"/>
+      <c r="AA64" s="80"/>
     </row>
     <row r="65" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="103"/>
-      <c r="B65" s="104"/>
-      <c r="C65" s="104"/>
-      <c r="D65" s="104"/>
-      <c r="E65" s="104"/>
-      <c r="F65" s="104"/>
-      <c r="G65" s="104"/>
-      <c r="H65" s="104"/>
-      <c r="I65" s="104"/>
-      <c r="J65" s="104"/>
-      <c r="K65" s="104"/>
-      <c r="L65" s="104"/>
-      <c r="M65" s="105"/>
+      <c r="A65" s="74"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="75"/>
+      <c r="H65" s="75"/>
+      <c r="I65" s="75"/>
+      <c r="J65" s="75"/>
+      <c r="K65" s="75"/>
+      <c r="L65" s="75"/>
+      <c r="M65" s="76"/>
       <c r="N65" s="11"/>
-      <c r="O65" s="106"/>
-      <c r="P65" s="107"/>
-      <c r="Q65" s="107"/>
-      <c r="R65" s="107"/>
-      <c r="S65" s="107"/>
-      <c r="T65" s="107"/>
-      <c r="U65" s="107"/>
-      <c r="V65" s="107"/>
-      <c r="W65" s="107"/>
-      <c r="X65" s="107"/>
-      <c r="Y65" s="107"/>
-      <c r="Z65" s="107"/>
-      <c r="AA65" s="108"/>
+      <c r="O65" s="79"/>
+      <c r="P65" s="56"/>
+      <c r="Q65" s="56"/>
+      <c r="R65" s="56"/>
+      <c r="S65" s="56"/>
+      <c r="T65" s="56"/>
+      <c r="U65" s="56"/>
+      <c r="V65" s="56"/>
+      <c r="W65" s="56"/>
+      <c r="X65" s="56"/>
+      <c r="Y65" s="56"/>
+      <c r="Z65" s="56"/>
+      <c r="AA65" s="80"/>
     </row>
     <row r="66" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="103"/>
-      <c r="B66" s="104"/>
-      <c r="C66" s="104"/>
-      <c r="D66" s="104"/>
-      <c r="E66" s="104"/>
-      <c r="F66" s="104"/>
-      <c r="G66" s="104"/>
-      <c r="H66" s="104"/>
-      <c r="I66" s="104"/>
-      <c r="J66" s="104"/>
-      <c r="K66" s="104"/>
-      <c r="L66" s="104"/>
-      <c r="M66" s="105"/>
+      <c r="A66" s="74"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="75"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="75"/>
+      <c r="J66" s="75"/>
+      <c r="K66" s="75"/>
+      <c r="L66" s="75"/>
+      <c r="M66" s="76"/>
       <c r="N66" s="11"/>
-      <c r="O66" s="106"/>
-      <c r="P66" s="107"/>
-      <c r="Q66" s="107"/>
-      <c r="R66" s="107"/>
-      <c r="S66" s="107"/>
-      <c r="T66" s="107"/>
-      <c r="U66" s="107"/>
-      <c r="V66" s="107"/>
-      <c r="W66" s="107"/>
-      <c r="X66" s="107"/>
-      <c r="Y66" s="107"/>
-      <c r="Z66" s="107"/>
-      <c r="AA66" s="108"/>
+      <c r="O66" s="79"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="56"/>
+      <c r="T66" s="56"/>
+      <c r="U66" s="56"/>
+      <c r="V66" s="56"/>
+      <c r="W66" s="56"/>
+      <c r="X66" s="56"/>
+      <c r="Y66" s="56"/>
+      <c r="Z66" s="56"/>
+      <c r="AA66" s="80"/>
     </row>
     <row r="67" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="103"/>
-      <c r="B67" s="104"/>
-      <c r="C67" s="104"/>
-      <c r="D67" s="104"/>
-      <c r="E67" s="104"/>
-      <c r="F67" s="104"/>
-      <c r="G67" s="104"/>
-      <c r="H67" s="104"/>
-      <c r="I67" s="104"/>
-      <c r="J67" s="104"/>
-      <c r="K67" s="104"/>
-      <c r="L67" s="104"/>
-      <c r="M67" s="105"/>
+      <c r="A67" s="74"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="75"/>
+      <c r="K67" s="75"/>
+      <c r="L67" s="75"/>
+      <c r="M67" s="76"/>
       <c r="N67" s="11"/>
-      <c r="O67" s="106"/>
-      <c r="P67" s="107"/>
-      <c r="Q67" s="107"/>
-      <c r="R67" s="107"/>
-      <c r="S67" s="107"/>
-      <c r="T67" s="107"/>
-      <c r="U67" s="107"/>
-      <c r="V67" s="107"/>
-      <c r="W67" s="107"/>
-      <c r="X67" s="107"/>
-      <c r="Y67" s="107"/>
-      <c r="Z67" s="107"/>
-      <c r="AA67" s="108"/>
+      <c r="O67" s="79"/>
+      <c r="P67" s="56"/>
+      <c r="Q67" s="56"/>
+      <c r="R67" s="56"/>
+      <c r="S67" s="56"/>
+      <c r="T67" s="56"/>
+      <c r="U67" s="56"/>
+      <c r="V67" s="56"/>
+      <c r="W67" s="56"/>
+      <c r="X67" s="56"/>
+      <c r="Y67" s="56"/>
+      <c r="Z67" s="56"/>
+      <c r="AA67" s="80"/>
     </row>
     <row r="68" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="103"/>
-      <c r="B68" s="104"/>
-      <c r="C68" s="104"/>
-      <c r="D68" s="104"/>
-      <c r="E68" s="104"/>
-      <c r="F68" s="104"/>
-      <c r="G68" s="104"/>
-      <c r="H68" s="104"/>
-      <c r="I68" s="104"/>
-      <c r="J68" s="104"/>
-      <c r="K68" s="104"/>
-      <c r="L68" s="104"/>
-      <c r="M68" s="105"/>
+      <c r="A68" s="74"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="75"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="75"/>
+      <c r="K68" s="75"/>
+      <c r="L68" s="75"/>
+      <c r="M68" s="76"/>
       <c r="N68" s="11"/>
-      <c r="O68" s="106"/>
-      <c r="P68" s="107"/>
-      <c r="Q68" s="107"/>
-      <c r="R68" s="107"/>
-      <c r="S68" s="107"/>
-      <c r="T68" s="107"/>
-      <c r="U68" s="107"/>
-      <c r="V68" s="107"/>
-      <c r="W68" s="107"/>
-      <c r="X68" s="107"/>
-      <c r="Y68" s="107"/>
-      <c r="Z68" s="107"/>
-      <c r="AA68" s="108"/>
+      <c r="O68" s="79"/>
+      <c r="P68" s="56"/>
+      <c r="Q68" s="56"/>
+      <c r="R68" s="56"/>
+      <c r="S68" s="56"/>
+      <c r="T68" s="56"/>
+      <c r="U68" s="56"/>
+      <c r="V68" s="56"/>
+      <c r="W68" s="56"/>
+      <c r="X68" s="56"/>
+      <c r="Y68" s="56"/>
+      <c r="Z68" s="56"/>
+      <c r="AA68" s="80"/>
     </row>
     <row r="69" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="103"/>
-      <c r="B69" s="104"/>
-      <c r="C69" s="104"/>
-      <c r="D69" s="104"/>
-      <c r="E69" s="104"/>
-      <c r="F69" s="104"/>
-      <c r="G69" s="104"/>
-      <c r="H69" s="104"/>
-      <c r="I69" s="104"/>
-      <c r="J69" s="104"/>
-      <c r="K69" s="104"/>
-      <c r="L69" s="104"/>
-      <c r="M69" s="105"/>
+      <c r="A69" s="74"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="75"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="75"/>
+      <c r="H69" s="75"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="75"/>
+      <c r="K69" s="75"/>
+      <c r="L69" s="75"/>
+      <c r="M69" s="76"/>
       <c r="N69" s="11"/>
-      <c r="O69" s="106"/>
-      <c r="P69" s="107"/>
-      <c r="Q69" s="107"/>
-      <c r="R69" s="107"/>
-      <c r="S69" s="107"/>
-      <c r="T69" s="107"/>
-      <c r="U69" s="107"/>
-      <c r="V69" s="107"/>
-      <c r="W69" s="107"/>
-      <c r="X69" s="107"/>
-      <c r="Y69" s="107"/>
-      <c r="Z69" s="107"/>
-      <c r="AA69" s="108"/>
+      <c r="O69" s="79"/>
+      <c r="P69" s="56"/>
+      <c r="Q69" s="56"/>
+      <c r="R69" s="56"/>
+      <c r="S69" s="56"/>
+      <c r="T69" s="56"/>
+      <c r="U69" s="56"/>
+      <c r="V69" s="56"/>
+      <c r="W69" s="56"/>
+      <c r="X69" s="56"/>
+      <c r="Y69" s="56"/>
+      <c r="Z69" s="56"/>
+      <c r="AA69" s="80"/>
     </row>
     <row r="70" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="103"/>
-      <c r="B70" s="104"/>
-      <c r="C70" s="104"/>
-      <c r="D70" s="104"/>
-      <c r="E70" s="104"/>
-      <c r="F70" s="104"/>
-      <c r="G70" s="104"/>
-      <c r="H70" s="104"/>
-      <c r="I70" s="104"/>
-      <c r="J70" s="104"/>
-      <c r="K70" s="104"/>
-      <c r="L70" s="104"/>
-      <c r="M70" s="105"/>
+      <c r="A70" s="74"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="75"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="75"/>
+      <c r="G70" s="75"/>
+      <c r="H70" s="75"/>
+      <c r="I70" s="75"/>
+      <c r="J70" s="75"/>
+      <c r="K70" s="75"/>
+      <c r="L70" s="75"/>
+      <c r="M70" s="76"/>
       <c r="N70" s="11"/>
-      <c r="O70" s="106"/>
-      <c r="P70" s="107"/>
-      <c r="Q70" s="107"/>
-      <c r="R70" s="107"/>
-      <c r="S70" s="107"/>
-      <c r="T70" s="107"/>
-      <c r="U70" s="107"/>
-      <c r="V70" s="107"/>
-      <c r="W70" s="107"/>
-      <c r="X70" s="107"/>
-      <c r="Y70" s="107"/>
-      <c r="Z70" s="107"/>
-      <c r="AA70" s="108"/>
+      <c r="O70" s="79"/>
+      <c r="P70" s="56"/>
+      <c r="Q70" s="56"/>
+      <c r="R70" s="56"/>
+      <c r="S70" s="56"/>
+      <c r="T70" s="56"/>
+      <c r="U70" s="56"/>
+      <c r="V70" s="56"/>
+      <c r="W70" s="56"/>
+      <c r="X70" s="56"/>
+      <c r="Y70" s="56"/>
+      <c r="Z70" s="56"/>
+      <c r="AA70" s="80"/>
     </row>
     <row r="71" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="103"/>
-      <c r="B71" s="104"/>
-      <c r="C71" s="104"/>
-      <c r="D71" s="104"/>
-      <c r="E71" s="104"/>
-      <c r="F71" s="104"/>
-      <c r="G71" s="104"/>
-      <c r="H71" s="104"/>
-      <c r="I71" s="104"/>
-      <c r="J71" s="104"/>
-      <c r="K71" s="104"/>
-      <c r="L71" s="104"/>
-      <c r="M71" s="105"/>
+      <c r="A71" s="74"/>
+      <c r="B71" s="75"/>
+      <c r="C71" s="75"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="75"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="75"/>
+      <c r="H71" s="75"/>
+      <c r="I71" s="75"/>
+      <c r="J71" s="75"/>
+      <c r="K71" s="75"/>
+      <c r="L71" s="75"/>
+      <c r="M71" s="76"/>
       <c r="N71" s="11"/>
-      <c r="O71" s="106"/>
-      <c r="P71" s="107"/>
-      <c r="Q71" s="107"/>
-      <c r="R71" s="107"/>
-      <c r="S71" s="107"/>
-      <c r="T71" s="107"/>
-      <c r="U71" s="107"/>
-      <c r="V71" s="107"/>
-      <c r="W71" s="107"/>
-      <c r="X71" s="107"/>
-      <c r="Y71" s="107"/>
-      <c r="Z71" s="107"/>
-      <c r="AA71" s="108"/>
+      <c r="O71" s="79"/>
+      <c r="P71" s="56"/>
+      <c r="Q71" s="56"/>
+      <c r="R71" s="56"/>
+      <c r="S71" s="56"/>
+      <c r="T71" s="56"/>
+      <c r="U71" s="56"/>
+      <c r="V71" s="56"/>
+      <c r="W71" s="56"/>
+      <c r="X71" s="56"/>
+      <c r="Y71" s="56"/>
+      <c r="Z71" s="56"/>
+      <c r="AA71" s="80"/>
     </row>
     <row r="72" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="103"/>
-      <c r="B72" s="104"/>
-      <c r="C72" s="104"/>
-      <c r="D72" s="104"/>
-      <c r="E72" s="104"/>
-      <c r="F72" s="104"/>
-      <c r="G72" s="104"/>
-      <c r="H72" s="104"/>
-      <c r="I72" s="104"/>
-      <c r="J72" s="104"/>
-      <c r="K72" s="104"/>
-      <c r="L72" s="104"/>
-      <c r="M72" s="105"/>
+      <c r="A72" s="74"/>
+      <c r="B72" s="75"/>
+      <c r="C72" s="75"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="75"/>
+      <c r="H72" s="75"/>
+      <c r="I72" s="75"/>
+      <c r="J72" s="75"/>
+      <c r="K72" s="75"/>
+      <c r="L72" s="75"/>
+      <c r="M72" s="76"/>
       <c r="N72" s="11"/>
-      <c r="O72" s="106"/>
-      <c r="P72" s="107"/>
-      <c r="Q72" s="107"/>
-      <c r="R72" s="107"/>
-      <c r="S72" s="107"/>
-      <c r="T72" s="107"/>
-      <c r="U72" s="107"/>
-      <c r="V72" s="107"/>
-      <c r="W72" s="107"/>
-      <c r="X72" s="107"/>
-      <c r="Y72" s="107"/>
-      <c r="Z72" s="107"/>
-      <c r="AA72" s="108"/>
+      <c r="O72" s="79"/>
+      <c r="P72" s="56"/>
+      <c r="Q72" s="56"/>
+      <c r="R72" s="56"/>
+      <c r="S72" s="56"/>
+      <c r="T72" s="56"/>
+      <c r="U72" s="56"/>
+      <c r="V72" s="56"/>
+      <c r="W72" s="56"/>
+      <c r="X72" s="56"/>
+      <c r="Y72" s="56"/>
+      <c r="Z72" s="56"/>
+      <c r="AA72" s="80"/>
     </row>
     <row r="73" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="103"/>
-      <c r="B73" s="104"/>
-      <c r="C73" s="104"/>
-      <c r="D73" s="104"/>
-      <c r="E73" s="104"/>
-      <c r="F73" s="104"/>
-      <c r="G73" s="104"/>
-      <c r="H73" s="104"/>
-      <c r="I73" s="104"/>
-      <c r="J73" s="104"/>
-      <c r="K73" s="104"/>
-      <c r="L73" s="104"/>
-      <c r="M73" s="105"/>
+      <c r="A73" s="74"/>
+      <c r="B73" s="75"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="75"/>
+      <c r="J73" s="75"/>
+      <c r="K73" s="75"/>
+      <c r="L73" s="75"/>
+      <c r="M73" s="76"/>
       <c r="N73" s="11"/>
-      <c r="O73" s="106"/>
-      <c r="P73" s="107"/>
-      <c r="Q73" s="107"/>
-      <c r="R73" s="107"/>
-      <c r="S73" s="107"/>
-      <c r="T73" s="107"/>
-      <c r="U73" s="107"/>
-      <c r="V73" s="107"/>
-      <c r="W73" s="107"/>
-      <c r="X73" s="107"/>
-      <c r="Y73" s="107"/>
-      <c r="Z73" s="107"/>
-      <c r="AA73" s="108"/>
+      <c r="O73" s="79"/>
+      <c r="P73" s="56"/>
+      <c r="Q73" s="56"/>
+      <c r="R73" s="56"/>
+      <c r="S73" s="56"/>
+      <c r="T73" s="56"/>
+      <c r="U73" s="56"/>
+      <c r="V73" s="56"/>
+      <c r="W73" s="56"/>
+      <c r="X73" s="56"/>
+      <c r="Y73" s="56"/>
+      <c r="Z73" s="56"/>
+      <c r="AA73" s="80"/>
     </row>
     <row r="74" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="103"/>
-      <c r="B74" s="104"/>
-      <c r="C74" s="104"/>
-      <c r="D74" s="104"/>
-      <c r="E74" s="104"/>
-      <c r="F74" s="104"/>
-      <c r="G74" s="104"/>
-      <c r="H74" s="104"/>
-      <c r="I74" s="104"/>
-      <c r="J74" s="104"/>
-      <c r="K74" s="104"/>
-      <c r="L74" s="104"/>
-      <c r="M74" s="105"/>
+      <c r="A74" s="74"/>
+      <c r="B74" s="75"/>
+      <c r="C74" s="75"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="75"/>
+      <c r="H74" s="75"/>
+      <c r="I74" s="75"/>
+      <c r="J74" s="75"/>
+      <c r="K74" s="75"/>
+      <c r="L74" s="75"/>
+      <c r="M74" s="76"/>
       <c r="N74" s="11"/>
-      <c r="O74" s="106"/>
-      <c r="P74" s="107"/>
-      <c r="Q74" s="107"/>
-      <c r="R74" s="107"/>
-      <c r="S74" s="107"/>
-      <c r="T74" s="107"/>
-      <c r="U74" s="107"/>
-      <c r="V74" s="107"/>
-      <c r="W74" s="107"/>
-      <c r="X74" s="107"/>
-      <c r="Y74" s="107"/>
-      <c r="Z74" s="107"/>
-      <c r="AA74" s="108"/>
+      <c r="O74" s="79"/>
+      <c r="P74" s="56"/>
+      <c r="Q74" s="56"/>
+      <c r="R74" s="56"/>
+      <c r="S74" s="56"/>
+      <c r="T74" s="56"/>
+      <c r="U74" s="56"/>
+      <c r="V74" s="56"/>
+      <c r="W74" s="56"/>
+      <c r="X74" s="56"/>
+      <c r="Y74" s="56"/>
+      <c r="Z74" s="56"/>
+      <c r="AA74" s="80"/>
     </row>
     <row r="75" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="103"/>
-      <c r="B75" s="104"/>
-      <c r="C75" s="104"/>
-      <c r="D75" s="104"/>
-      <c r="E75" s="104"/>
-      <c r="F75" s="104"/>
-      <c r="G75" s="104"/>
-      <c r="H75" s="104"/>
-      <c r="I75" s="104"/>
-      <c r="J75" s="104"/>
-      <c r="K75" s="104"/>
-      <c r="L75" s="104"/>
-      <c r="M75" s="105"/>
+      <c r="A75" s="74"/>
+      <c r="B75" s="75"/>
+      <c r="C75" s="75"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="75"/>
+      <c r="H75" s="75"/>
+      <c r="I75" s="75"/>
+      <c r="J75" s="75"/>
+      <c r="K75" s="75"/>
+      <c r="L75" s="75"/>
+      <c r="M75" s="76"/>
       <c r="N75" s="11"/>
-      <c r="O75" s="106"/>
-      <c r="P75" s="107"/>
-      <c r="Q75" s="107"/>
-      <c r="R75" s="107"/>
-      <c r="S75" s="107"/>
-      <c r="T75" s="107"/>
-      <c r="U75" s="107"/>
-      <c r="V75" s="107"/>
-      <c r="W75" s="107"/>
-      <c r="X75" s="107"/>
-      <c r="Y75" s="107"/>
-      <c r="Z75" s="107"/>
-      <c r="AA75" s="108"/>
+      <c r="O75" s="79"/>
+      <c r="P75" s="56"/>
+      <c r="Q75" s="56"/>
+      <c r="R75" s="56"/>
+      <c r="S75" s="56"/>
+      <c r="T75" s="56"/>
+      <c r="U75" s="56"/>
+      <c r="V75" s="56"/>
+      <c r="W75" s="56"/>
+      <c r="X75" s="56"/>
+      <c r="Y75" s="56"/>
+      <c r="Z75" s="56"/>
+      <c r="AA75" s="80"/>
     </row>
     <row r="76" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="103"/>
-      <c r="B76" s="104"/>
-      <c r="C76" s="104"/>
-      <c r="D76" s="104"/>
-      <c r="E76" s="104"/>
-      <c r="F76" s="104"/>
-      <c r="G76" s="104"/>
-      <c r="H76" s="104"/>
-      <c r="I76" s="104"/>
-      <c r="J76" s="104"/>
-      <c r="K76" s="104"/>
-      <c r="L76" s="104"/>
-      <c r="M76" s="105"/>
+      <c r="A76" s="74"/>
+      <c r="B76" s="75"/>
+      <c r="C76" s="75"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="75"/>
+      <c r="I76" s="75"/>
+      <c r="J76" s="75"/>
+      <c r="K76" s="75"/>
+      <c r="L76" s="75"/>
+      <c r="M76" s="76"/>
       <c r="N76" s="11"/>
-      <c r="O76" s="106"/>
-      <c r="P76" s="107"/>
-      <c r="Q76" s="107"/>
-      <c r="R76" s="107"/>
-      <c r="S76" s="107"/>
-      <c r="T76" s="107"/>
-      <c r="U76" s="107"/>
-      <c r="V76" s="107"/>
-      <c r="W76" s="107"/>
-      <c r="X76" s="107"/>
-      <c r="Y76" s="107"/>
-      <c r="Z76" s="107"/>
-      <c r="AA76" s="108"/>
+      <c r="O76" s="79"/>
+      <c r="P76" s="56"/>
+      <c r="Q76" s="56"/>
+      <c r="R76" s="56"/>
+      <c r="S76" s="56"/>
+      <c r="T76" s="56"/>
+      <c r="U76" s="56"/>
+      <c r="V76" s="56"/>
+      <c r="W76" s="56"/>
+      <c r="X76" s="56"/>
+      <c r="Y76" s="56"/>
+      <c r="Z76" s="56"/>
+      <c r="AA76" s="80"/>
     </row>
     <row r="77" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="103"/>
-      <c r="B77" s="104"/>
-      <c r="C77" s="104"/>
-      <c r="D77" s="104"/>
-      <c r="E77" s="104"/>
-      <c r="F77" s="104"/>
-      <c r="G77" s="104"/>
-      <c r="H77" s="104"/>
-      <c r="I77" s="104"/>
-      <c r="J77" s="104"/>
-      <c r="K77" s="104"/>
-      <c r="L77" s="104"/>
-      <c r="M77" s="105"/>
+      <c r="A77" s="74"/>
+      <c r="B77" s="75"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
+      <c r="F77" s="75"/>
+      <c r="G77" s="75"/>
+      <c r="H77" s="75"/>
+      <c r="I77" s="75"/>
+      <c r="J77" s="75"/>
+      <c r="K77" s="75"/>
+      <c r="L77" s="75"/>
+      <c r="M77" s="76"/>
       <c r="N77" s="11"/>
-      <c r="O77" s="106"/>
-      <c r="P77" s="107"/>
-      <c r="Q77" s="107"/>
-      <c r="R77" s="107"/>
-      <c r="S77" s="107"/>
-      <c r="T77" s="107"/>
-      <c r="U77" s="107"/>
-      <c r="V77" s="107"/>
-      <c r="W77" s="107"/>
-      <c r="X77" s="107"/>
-      <c r="Y77" s="107"/>
-      <c r="Z77" s="107"/>
-      <c r="AA77" s="108"/>
+      <c r="O77" s="79"/>
+      <c r="P77" s="56"/>
+      <c r="Q77" s="56"/>
+      <c r="R77" s="56"/>
+      <c r="S77" s="56"/>
+      <c r="T77" s="56"/>
+      <c r="U77" s="56"/>
+      <c r="V77" s="56"/>
+      <c r="W77" s="56"/>
+      <c r="X77" s="56"/>
+      <c r="Y77" s="56"/>
+      <c r="Z77" s="56"/>
+      <c r="AA77" s="80"/>
     </row>
     <row r="78" spans="1:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12"/>
@@ -4325,22 +4564,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="R2:U4"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:AA11"/>
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="V2:AA4"/>
-    <mergeCell ref="A6:AA6"/>
-    <mergeCell ref="P7:AA7"/>
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="L9:AA9"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A52:M77"/>
-    <mergeCell ref="O52:AA77"/>
-    <mergeCell ref="AB48:AN48"/>
-    <mergeCell ref="A34:M34"/>
-    <mergeCell ref="O34:AA34"/>
-    <mergeCell ref="A50:AA50"/>
     <mergeCell ref="A12:AA12"/>
     <mergeCell ref="A29:F30"/>
     <mergeCell ref="A32:AA32"/>
@@ -4355,6 +4578,22 @@
     <mergeCell ref="W20:AA20"/>
     <mergeCell ref="G25:AA25"/>
     <mergeCell ref="G26:AA27"/>
+    <mergeCell ref="A52:M77"/>
+    <mergeCell ref="O52:AA77"/>
+    <mergeCell ref="AB48:AN48"/>
+    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="O34:AA34"/>
+    <mergeCell ref="A50:AA50"/>
+    <mergeCell ref="R2:U4"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:AA11"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="V2:AA4"/>
+    <mergeCell ref="A6:AA6"/>
+    <mergeCell ref="P7:AA7"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="L9:AA9"/>
+    <mergeCell ref="A9:K9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.31496062992125984" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.39370078740157483"/>
